--- a/p12/p12.xlsx
+++ b/p12/p12.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="109" documentId="11_9248B46DC1CBB2E3ED7FF6F9903E8C1851038383" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{087542A0-51D1-4A7D-89B8-B0CF60E2761F}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaiza\OneDrive - Universidad de Oviedo\Escritorio\Alg\IIS-Alg\p12\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A840F699-3A86-4958-A458-08A0F01E1192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="22">
   <si>
     <t>n</t>
   </si>
@@ -60,9 +65,6 @@
     <t>bucle2</t>
   </si>
   <si>
-    <t>bucle345</t>
-  </si>
-  <si>
     <t>TBucle5</t>
   </si>
   <si>
@@ -70,13 +72,46 @@
   </si>
   <si>
     <t>TBucle7</t>
+  </si>
+  <si>
+    <t>bucle3, 4, 5</t>
+  </si>
+  <si>
+    <t>TBucle1(t1)</t>
+  </si>
+  <si>
+    <t>TBucle2(t2)</t>
+  </si>
+  <si>
+    <t>t1/t2</t>
+  </si>
+  <si>
+    <t>t3/t2</t>
+  </si>
+  <si>
+    <t>TBucle3(t3)</t>
+  </si>
+  <si>
+    <t>TBucle4-Java</t>
+  </si>
+  <si>
+    <t>TBucle4-Python</t>
+  </si>
+  <si>
+    <t>tPython/tJava</t>
+  </si>
+  <si>
+    <t>al ser &gt;1 es mejor t2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -128,9 +166,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +206,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +312,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -424,255 +462,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1">
+        <v>100000</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D1" s="1">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="1">
         <f>442/$C$15</f>
         <v>4.4200000000000003E-3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C3" s="1">
         <f>213/$C$16</f>
         <v>0.21299999999999999</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D3" s="1">
         <f>90/$C$17</f>
         <v>0.9</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1">
         <f>70/$C$17</f>
         <v>0.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
+      <c r="G3" s="1">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1">
+        <f>442/$C$15</f>
+        <v>4.4200000000000003E-3</v>
+      </c>
+      <c r="I3" s="1">
+        <f>213/$C$16</f>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J3" s="2">
+        <f>H3/I3</f>
+        <v>2.0751173708920191E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+      <c r="M3" s="1">
+        <f>90/$C$17</f>
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="1">
+        <f>213/$C$16</f>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <f>M3/N3</f>
+        <v>4.2253521126760569</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>200</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="1">
         <f>1023/$C$15</f>
         <v>1.023E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C4" s="1">
         <f>611/$C$16</f>
         <v>0.61099999999999999</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <f>400/$C$17</f>
         <v>4</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E4" s="1">
         <f>529/$C$17</f>
         <v>5.29</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
+      <c r="G4" s="1">
+        <v>200</v>
+      </c>
+      <c r="H4" s="1">
+        <f>1023/$C$15</f>
+        <v>1.023E-2</v>
+      </c>
+      <c r="I4" s="1">
+        <f>611/$C$16</f>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J12" si="0">H4/I4</f>
+        <v>1.6743044189852702E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>200</v>
+      </c>
+      <c r="M4" s="1">
+        <f>400/$C$17</f>
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <f>611/$C$16</f>
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O12" si="1">M4/N4</f>
+        <v>6.5466448445171848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>400</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="1">
         <f>2062/$C$15</f>
         <v>2.0619999999999999E-2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C5" s="1">
         <f>2967/$C$16</f>
         <v>2.9670000000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D5" s="1">
         <f>1690/$C$17</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E5" s="1">
         <f>3982/$C$17</f>
         <v>39.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
+      <c r="G5" s="1">
+        <v>400</v>
+      </c>
+      <c r="H5" s="1">
+        <f>2062/$C$15</f>
+        <v>2.0619999999999999E-2</v>
+      </c>
+      <c r="I5" s="1">
+        <f>2967/$C$16</f>
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.9497809234917423E-3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>400</v>
+      </c>
+      <c r="M5" s="1">
+        <f>1690/$C$17</f>
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <f>2967/$C$16</f>
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="1"/>
+        <v>5.6959892146949773</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>800</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="1">
         <f>4763/$C$15</f>
         <v>4.7629999999999999E-2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C6" s="1">
         <f>13411/$C$16</f>
         <v>13.411</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D6" s="1">
         <f>7163/$C$17</f>
         <v>71.63</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E6" s="1">
         <f>30660/$C$17</f>
         <v>306.60000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
+      <c r="G6" s="1">
+        <v>800</v>
+      </c>
+      <c r="H6" s="1">
+        <f>4763/$C$15</f>
+        <v>4.7629999999999999E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <f>13411/$C$16</f>
+        <v>13.411</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="0"/>
+        <v>3.551562150473492E-3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>800</v>
+      </c>
+      <c r="M6" s="1">
+        <f>7163/$C$17</f>
+        <v>71.63</v>
+      </c>
+      <c r="N6" s="1">
+        <f>13411/$C$16</f>
+        <v>13.411</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>5.3411378718962048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>1600</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="1">
         <f>10203/$C$15</f>
         <v>0.10203</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C7" s="1">
         <f>52905/$C$16</f>
         <v>52.905000000000001</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D7" s="1">
         <f>30840/$C$17</f>
         <v>308.39999999999998</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <f>253596/$C$17</f>
         <v>2535.96</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
+      <c r="G7" s="1">
+        <v>1600</v>
+      </c>
+      <c r="H7" s="1">
+        <f>10203/$C$15</f>
+        <v>0.10203</v>
+      </c>
+      <c r="I7" s="1">
+        <f>52905/$C$16</f>
+        <v>52.905000000000001</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9285511766373687E-3</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1600</v>
+      </c>
+      <c r="M7" s="1">
+        <f>30840/$C$17</f>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="N7" s="1">
+        <f>52905/$C$16</f>
+        <v>52.905000000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8293166997448251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>3200</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B8" s="1">
         <f>21315/$C$15</f>
         <v>0.21315000000000001</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C8" s="1">
         <f>242995/$C$16</f>
         <v>242.995</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <f>124287/$C$17</f>
         <v>1242.8699999999999</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <f>2158649/$C$17</f>
         <v>21586.49</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
+      <c r="G8" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H8" s="1">
+        <f>21315/$C$15</f>
+        <v>0.21315000000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <f>242995/$C$16</f>
+        <v>242.995</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="0"/>
+        <v>8.7717854276836969E-4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3200</v>
+      </c>
+      <c r="M8" s="1">
+        <f>124287/$C$17</f>
+        <v>1242.8699999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <f>242995/$C$16</f>
+        <v>242.995</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="1"/>
+        <v>5.1147966007531016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6400</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B9" s="1">
         <f>44924/$C$15</f>
         <v>0.44923999999999997</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6400</v>
+      </c>
+      <c r="H9" s="1">
+        <f>44924/$C$15</f>
+        <v>0.44923999999999997</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>6400</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>12800</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B10" s="1">
         <f>102227/$C$15</f>
         <v>1.02227</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12800</v>
+      </c>
+      <c r="H10" s="1">
+        <f>102227/$C$15</f>
+        <v>1.02227</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>12800</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>25600</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>25600</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>25600</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>51200</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1">
+        <v>51200</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>51200</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
         <v>6</v>
@@ -684,8 +1046,20 @@
         <v>7</v>
       </c>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="G15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -695,48 +1069,122 @@
         <v>8</v>
       </c>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="G16" s="1">
+        <v>100</v>
+      </c>
+      <c r="H16" s="1">
+        <v>6</v>
+      </c>
+      <c r="I16" s="1">
+        <f>70/$C$17</f>
+        <v>0.7</v>
+      </c>
+      <c r="J16" s="2">
+        <f>H16/I16</f>
+        <v>8.5714285714285712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1">
         <v>100</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="G17" s="1">
+        <v>200</v>
+      </c>
+      <c r="H17" s="1">
+        <v>46</v>
+      </c>
+      <c r="I17" s="1">
+        <f>529/$C$17</f>
+        <v>5.29</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" ref="J17:J21" si="2">H17/I17</f>
+        <v>8.695652173913043</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="G18" s="1">
+        <v>400</v>
+      </c>
+      <c r="H18" s="1">
+        <v>319</v>
+      </c>
+      <c r="I18" s="1">
+        <f>3982/$C$17</f>
+        <v>39.82</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0110497237569067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="1">
+        <v>100</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" s="1">
+        <v>800</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2853</v>
+      </c>
+      <c r="I19" s="1">
+        <f>30660/$C$17</f>
+        <v>306.60000000000002</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>9.3052837573385503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="G20" s="1">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="1">
+        <v>20535</v>
+      </c>
+      <c r="I20" s="1">
+        <f>253596/$C$17</f>
+        <v>2535.96</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>8.0975251975583209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>100</v>
       </c>
@@ -747,8 +1195,22 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="G21" s="1">
+        <v>3200</v>
+      </c>
+      <c r="H21" s="1">
+        <v>176432</v>
+      </c>
+      <c r="I21" s="1">
+        <f>2158649/$C$17</f>
+        <v>21586.49</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>8.1732602197022306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>200</v>
       </c>
@@ -759,8 +1221,20 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="G22" s="1">
+        <v>6400</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>400</v>
       </c>
@@ -771,8 +1245,9 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>800</v>
       </c>
@@ -783,8 +1258,9 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1600</v>
       </c>
@@ -795,8 +1271,9 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>3200</v>
       </c>
@@ -808,7 +1285,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>6400</v>
       </c>
